--- a/data/trans_orig/P57GLOBAL_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>426416</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>403660</v>
+        <v>404417</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>446711</v>
+        <v>445781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7299880663927749</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6910317814967957</v>
+        <v>0.6923270510951406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7647311994094306</v>
+        <v>0.7631392862668327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>599</v>
@@ -765,19 +765,19 @@
         <v>632883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>602894</v>
+        <v>604747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>659132</v>
+        <v>661573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6877654180964324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6551759616830407</v>
+        <v>0.6571897396744281</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7162906394387173</v>
+        <v>0.7189429742878484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1018</v>
@@ -786,19 +786,19 @@
         <v>1059300</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1023911</v>
+        <v>1026770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1094613</v>
+        <v>1093933</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7041606067826173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6806362426753809</v>
+        <v>0.682536565683578</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7276350451940452</v>
+        <v>0.7271825735994338</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>157725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137430</v>
+        <v>138360</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>180481</v>
+        <v>179724</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.270011933607225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2352688005905693</v>
+        <v>0.2368607137331672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3089682185032043</v>
+        <v>0.3076729489048592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -836,19 +836,19 @@
         <v>287319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261070</v>
+        <v>258629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>317308</v>
+        <v>315455</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3122345819035676</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2837093605612828</v>
+        <v>0.2810570257121517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3448240383169594</v>
+        <v>0.3428102603255719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>439</v>
@@ -857,19 +857,19 @@
         <v>445044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>409731</v>
+        <v>410411</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>480433</v>
+        <v>477574</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2958393932173827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2723649548059547</v>
+        <v>0.2728174264005661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3193637573246189</v>
+        <v>0.3174634343164219</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>741497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>708399</v>
+        <v>707580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>772416</v>
+        <v>770008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6886061792412023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6578686324614154</v>
+        <v>0.6571083024007401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7173194543166309</v>
+        <v>0.715082845879593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>750</v>
@@ -982,19 +982,19 @@
         <v>774865</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>748208</v>
+        <v>744057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>803480</v>
+        <v>801065</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7333963334455029</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7081665486289345</v>
+        <v>0.7042371365275294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7604803623351548</v>
+        <v>0.7581943543567157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1478</v>
@@ -1003,19 +1003,19 @@
         <v>1516362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1476337</v>
+        <v>1476171</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1560606</v>
+        <v>1562395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7107885075831788</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6920270727733555</v>
+        <v>0.6919489074975658</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7315275213496845</v>
+        <v>0.7323663213882706</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>335312</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>304393</v>
+        <v>306801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>368410</v>
+        <v>369229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3113938207587977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.282680545683369</v>
+        <v>0.2849171541204061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3421313675385847</v>
+        <v>0.3428916975992597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>277</v>
@@ -1053,19 +1053,19 @@
         <v>281678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>253063</v>
+        <v>255478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308335</v>
+        <v>312486</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2666036665544971</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2395196376648453</v>
+        <v>0.2418056456432844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2918334513710655</v>
+        <v>0.2957628634724706</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>603</v>
@@ -1074,19 +1074,19 @@
         <v>616990</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>572746</v>
+        <v>570957</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>657015</v>
+        <v>657181</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2892114924168212</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2684724786503157</v>
+        <v>0.2676336786117296</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3079729272266446</v>
+        <v>0.3080510925024343</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>785934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>752720</v>
+        <v>752890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>816408</v>
+        <v>818069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7018253411547687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6721654915487606</v>
+        <v>0.6723170464357724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7290378867046904</v>
+        <v>0.7305208018779901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>732</v>
@@ -1199,19 +1199,19 @@
         <v>746089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>719462</v>
+        <v>717461</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>772748</v>
+        <v>771825</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7506377118654569</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7238486009711924</v>
+        <v>0.7218353052972146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7774589844176247</v>
+        <v>0.7765311980696107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1507</v>
@@ -1220,19 +1220,19 @@
         <v>1532023</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1492261</v>
+        <v>1495081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1573806</v>
+        <v>1574612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.724777817369197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7059670643720265</v>
+        <v>0.7073010285820956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7445448023590346</v>
+        <v>0.7449261509576941</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>333909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303435</v>
+        <v>301774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>367123</v>
+        <v>366953</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2981746588452314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2709621132953096</v>
+        <v>0.2694791981220099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3278345084512395</v>
+        <v>0.3276829535642276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>250</v>
@@ -1270,19 +1270,19 @@
         <v>247851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221192</v>
+        <v>222115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274478</v>
+        <v>276479</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2493622881345431</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2225410155823752</v>
+        <v>0.2234688019303894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2761513990288078</v>
+        <v>0.2781646947027855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>577</v>
@@ -1291,19 +1291,19 @@
         <v>581760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>539977</v>
+        <v>539171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621522</v>
+        <v>618702</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2752221826308031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2554551976409657</v>
+        <v>0.2550738490423059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2940329356279752</v>
+        <v>0.2926989714179044</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>318695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>300693</v>
+        <v>298197</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>337142</v>
+        <v>337232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.717833047471768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6772849872379679</v>
+        <v>0.671663140909987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7593845840329392</v>
+        <v>0.7595862506459531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>232</v>
@@ -1416,19 +1416,19 @@
         <v>235993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219290</v>
+        <v>218748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>251397</v>
+        <v>252583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6917419652068629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6427805394433534</v>
+        <v>0.641193880747391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7368936929297975</v>
+        <v>0.7403700570947551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>544</v>
@@ -1437,19 +1437,19 @@
         <v>554688</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>528449</v>
+        <v>526928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>579488</v>
+        <v>579912</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7064957800860578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6730754636809153</v>
+        <v>0.6711385851899486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7380821710459822</v>
+        <v>0.7386233719974967</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>125273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106826</v>
+        <v>106736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143275</v>
+        <v>145771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.282166952528232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2406154159670607</v>
+        <v>0.2404137493540469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.322715012762032</v>
+        <v>0.3283368590900129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1487,19 +1487,19 @@
         <v>105165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89761</v>
+        <v>88575</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121868</v>
+        <v>122410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.308258034793137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2631063070702025</v>
+        <v>0.2596299429052449</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3572194605566466</v>
+        <v>0.358806119252609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -1508,19 +1508,19 @@
         <v>230438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>205638</v>
+        <v>205214</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>256677</v>
+        <v>258198</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2935042199139422</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2619178289540179</v>
+        <v>0.2613766280025033</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3269245363190847</v>
+        <v>0.3288614148100517</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2272543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2219797</v>
+        <v>2219683</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2325458</v>
+        <v>2326857</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7047165328991973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6883598881907568</v>
+        <v>0.6883247202595809</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7211255600061512</v>
+        <v>0.7215593186954471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2313</v>
@@ -1633,19 +1633,19 @@
         <v>2389830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2338806</v>
+        <v>2340085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2440820</v>
+        <v>2440496</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.721601238437665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7061948494204137</v>
+        <v>0.7065809867430933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7369975103675641</v>
+        <v>0.7368997847865598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4547</v>
@@ -1654,19 +1654,19 @@
         <v>4662373</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4589586</v>
+        <v>4580000</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4736981</v>
+        <v>4735778</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7132713550681888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7021360091834188</v>
+        <v>0.7006694872255289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7246851646690996</v>
+        <v>0.7245012020099817</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>952219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>899304</v>
+        <v>897905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1004965</v>
+        <v>1005079</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2952834671008026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2788744399938488</v>
+        <v>0.2784406813045529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3116401118092432</v>
+        <v>0.3116752797404189</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>918</v>
@@ -1704,19 +1704,19 @@
         <v>922013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>871023</v>
+        <v>871347</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>973037</v>
+        <v>971758</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.278398761562335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2630024896324359</v>
+        <v>0.2631002152134401</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2938051505795863</v>
+        <v>0.2934190132569067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1847</v>
@@ -1725,19 +1725,19 @@
         <v>1874232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1799624</v>
+        <v>1800827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1947019</v>
+        <v>1956605</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2867286449318112</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.275314835330901</v>
+        <v>0.2754987979900185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2978639908165814</v>
+        <v>0.2993305127744714</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>715019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>681667</v>
+        <v>682334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>747023</v>
+        <v>746379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6967031620182881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6642060008724777</v>
+        <v>0.6648555472966533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7278874128341467</v>
+        <v>0.727260224470985</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>760</v>
@@ -2090,19 +2090,19 @@
         <v>826131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>795357</v>
+        <v>796051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>854573</v>
+        <v>857714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7464692327904504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.718662376758025</v>
+        <v>0.7192898017842608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7721684273221924</v>
+        <v>0.775006404787517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1431</v>
@@ -2111,19 +2111,19 @@
         <v>1541150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1498960</v>
+        <v>1491698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1585449</v>
+        <v>1577706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7225244608769057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7027448451091436</v>
+        <v>0.6993403512699535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7432931128287592</v>
+        <v>0.7396627676460992</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>311270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279266</v>
+        <v>279910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>344622</v>
+        <v>343955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3032968379817119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2721125871658536</v>
+        <v>0.2727397755290151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3357939991275223</v>
+        <v>0.3351444527033469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -2161,19 +2161,19 @@
         <v>280587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252145</v>
+        <v>249004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311361</v>
+        <v>310667</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2535307672095495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2278315726778076</v>
+        <v>0.224993595212483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2813376232419749</v>
+        <v>0.2807101982157393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>550</v>
@@ -2182,19 +2182,19 @@
         <v>591857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>547558</v>
+        <v>555301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>634047</v>
+        <v>641309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2774755391230943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2567068871712408</v>
+        <v>0.2603372323539009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2972551548908565</v>
+        <v>0.3006596487300464</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>669225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>635843</v>
+        <v>639609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>696084</v>
+        <v>700547</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6908177580520247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6563589849621468</v>
+        <v>0.6602460918486381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7185433838172854</v>
+        <v>0.7231506202448256</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>787</v>
@@ -2307,19 +2307,19 @@
         <v>845731</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>816219</v>
+        <v>818158</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>870882</v>
+        <v>874096</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7795292184640222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7523279023514791</v>
+        <v>0.7541146596118274</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8027117901737369</v>
+        <v>0.8056745826966755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1414</v>
@@ -2328,19 +2328,19 @@
         <v>1514956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1471109</v>
+        <v>1471615</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1553264</v>
+        <v>1555559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7376828343576313</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7163322414681179</v>
+        <v>0.7165789697129873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7563363000658991</v>
+        <v>0.7574540425872651</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>299518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272659</v>
+        <v>268196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332900</v>
+        <v>329134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3091822419479753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2814566161827146</v>
+        <v>0.2768493797551745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3436410150378538</v>
+        <v>0.3397539081513619</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>224</v>
@@ -2378,19 +2378,19 @@
         <v>239194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>214043</v>
+        <v>210829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>268706</v>
+        <v>266767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2204707815359778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1972882098262631</v>
+        <v>0.1943254173033245</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2476720976485208</v>
+        <v>0.2458853403881726</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>512</v>
@@ -2399,19 +2399,19 @@
         <v>538712</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>500404</v>
+        <v>498109</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>582559</v>
+        <v>582053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2623171656423687</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2436636999341009</v>
+        <v>0.2425459574127351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2836677585318821</v>
+        <v>0.2834210302870128</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>631525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>602498</v>
+        <v>603725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>657212</v>
+        <v>657926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7184134800668385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6853930145790342</v>
+        <v>0.6867888227871651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7476347472802438</v>
+        <v>0.7484472290492761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>640</v>
@@ -2524,19 +2524,19 @@
         <v>686887</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>663170</v>
+        <v>662580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>710677</v>
+        <v>709706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7898572038154522</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7625849063249203</v>
+        <v>0.7619070910104808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8172139407729638</v>
+        <v>0.816096977534263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1225</v>
@@ -2545,19 +2545,19 @@
         <v>1318412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1282047</v>
+        <v>1281731</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1353442</v>
+        <v>1356756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7539428923201664</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7331477888811251</v>
+        <v>0.7329667007940804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.773975129806281</v>
+        <v>0.7758703846271491</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>247530</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221843</v>
+        <v>221129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276557</v>
+        <v>275330</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2815865199331615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2523652527197561</v>
+        <v>0.2515527709507238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3146069854209657</v>
+        <v>0.3132111772128345</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>176</v>
@@ -2595,19 +2595,19 @@
         <v>182747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158957</v>
+        <v>159928</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>206464</v>
+        <v>207054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2101427961845478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1827860592270362</v>
+        <v>0.1839030224657369</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2374150936750797</v>
+        <v>0.238092908989519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -2616,19 +2616,19 @@
         <v>430277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>395247</v>
+        <v>391933</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>466642</v>
+        <v>466958</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2460571076798335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.226024870193719</v>
+        <v>0.2241296153728509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.266852211118875</v>
+        <v>0.2670332992059195</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>305185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>282594</v>
+        <v>282544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>328840</v>
+        <v>328356</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6169949469721042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5713222604043705</v>
+        <v>0.5712201457103216</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6648170734599691</v>
+        <v>0.6638389331139528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>255</v>
@@ -2741,19 +2741,19 @@
         <v>281837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>261786</v>
+        <v>259445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303524</v>
+        <v>303386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6318673690065965</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5869121150352786</v>
+        <v>0.5816641847211008</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6804871327540887</v>
+        <v>0.6801774936836549</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>534</v>
@@ -2762,19 +2762,19 @@
         <v>587023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>554018</v>
+        <v>553753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>617706</v>
+        <v>616125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.624047021681128</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5889604723540978</v>
+        <v>0.5886791866566937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6566653747687543</v>
+        <v>0.6549840635009354</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>189447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>165792</v>
+        <v>166276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212038</v>
+        <v>212088</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3830050530278957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3351829265400316</v>
+        <v>0.3361610668860472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4286777395956295</v>
+        <v>0.4287798542896784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>151</v>
@@ -2812,19 +2812,19 @@
         <v>164202</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142515</v>
+        <v>142653</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184253</v>
+        <v>186594</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3681326309934036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3195128672459113</v>
+        <v>0.3198225063163452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4130878849647214</v>
+        <v>0.4183358152788989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>325</v>
@@ -2833,19 +2833,19 @@
         <v>353648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>322965</v>
+        <v>324546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386653</v>
+        <v>386918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.375952978318872</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3433346252312459</v>
+        <v>0.3450159364990648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4110395276459024</v>
+        <v>0.4113208133433063</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2320953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2261875</v>
+        <v>2261139</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2372390</v>
+        <v>2373875</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6889723015120651</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6714348348039398</v>
+        <v>0.6712163799700464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7042411057726193</v>
+        <v>0.7046818816699311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2442</v>
@@ -2958,19 +2958,19 @@
         <v>2640586</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2584545</v>
+        <v>2584433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2693119</v>
+        <v>2689071</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7528793681601939</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7369009613882428</v>
+        <v>0.7368691415109753</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7678575788318696</v>
+        <v>0.7667033788005739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4604</v>
@@ -2979,19 +2979,19 @@
         <v>4961539</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4882107</v>
+        <v>4889020</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5035683</v>
+        <v>5040639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7215699123204133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7100178256017241</v>
+        <v>0.7110232742051209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7323528576900324</v>
+        <v>0.73307365280296</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1047765</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>996328</v>
+        <v>994843</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1106843</v>
+        <v>1107579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3110276984879349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2957588942273807</v>
+        <v>0.2953181183300688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3285651651960602</v>
+        <v>0.3287836200299536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>811</v>
@@ -3029,19 +3029,19 @@
         <v>866730</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>814197</v>
+        <v>818245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>922771</v>
+        <v>922883</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2471206318398061</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2321424211681303</v>
+        <v>0.233296621199426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2630990386117571</v>
+        <v>0.2631308584890243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1802</v>
@@ -3050,19 +3050,19 @@
         <v>1914495</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1840351</v>
+        <v>1835395</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1993927</v>
+        <v>1987014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2784300876795867</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2676471423099676</v>
+        <v>0.26692634719704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2899821743982759</v>
+        <v>0.288976725794879</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>964326</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>938912</v>
+        <v>938832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>987196</v>
+        <v>985535</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8606821356997841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8379989738553463</v>
+        <v>0.8379283042113546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.881093792041885</v>
+        <v>0.8796115557119001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1016</v>
@@ -3415,19 +3415,19 @@
         <v>1081684</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1055160</v>
+        <v>1057234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1103093</v>
+        <v>1103979</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8657522131488447</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8445235268761651</v>
+        <v>0.8461833265817494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8828874646468277</v>
+        <v>0.8835968203008817</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1931</v>
@@ -3436,19 +3436,19 @@
         <v>2046011</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2010263</v>
+        <v>2008652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2078044</v>
+        <v>2077330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8633551604480119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8482707161079822</v>
+        <v>0.84759091976433</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8768721155846929</v>
+        <v>0.876570994185597</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>156095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>133225</v>
+        <v>134886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181509</v>
+        <v>181589</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1393178643002159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1189062079581151</v>
+        <v>0.1203884442880999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1620010261446538</v>
+        <v>0.1620716957886456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -3486,19 +3486,19 @@
         <v>167731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146322</v>
+        <v>145436</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194255</v>
+        <v>192181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1342477868511553</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1171125353531723</v>
+        <v>0.116403179699118</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1554764731238352</v>
+        <v>0.1538166734182504</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>306</v>
@@ -3507,19 +3507,19 @@
         <v>323826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>291793</v>
+        <v>292507</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>359574</v>
+        <v>361185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1366448395519882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1231278844153071</v>
+        <v>0.123429005814403</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1517292838920178</v>
+        <v>0.1524090802356699</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>751918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>728560</v>
+        <v>727920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>773550</v>
+        <v>774280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8332975166038401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8074114176520596</v>
+        <v>0.8067028774586892</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8572713514035055</v>
+        <v>0.8580806090559409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>808</v>
@@ -3632,19 +3632,19 @@
         <v>856015</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>832140</v>
+        <v>833541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>877196</v>
+        <v>875485</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8629723769886125</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8389034858800314</v>
+        <v>0.8403151888754149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8843249278470947</v>
+        <v>0.8826004637831565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1535</v>
@@ -3653,19 +3653,19 @@
         <v>1607933</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1575717</v>
+        <v>1575250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1637237</v>
+        <v>1636247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8488367471552623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8318298940344357</v>
+        <v>0.8315834038999704</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8643065436832725</v>
+        <v>0.8637841275989752</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>150422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128790</v>
+        <v>128060</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173780</v>
+        <v>174420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1667024833961598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1427286485964944</v>
+        <v>0.1419193909440592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1925885823479404</v>
+        <v>0.1932971225413108</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -3703,19 +3703,19 @@
         <v>135923</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114742</v>
+        <v>116453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>159798</v>
+        <v>158397</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1370276230113875</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1156750721529051</v>
+        <v>0.1173995362168437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1610965141199685</v>
+        <v>0.1596848111245854</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>279</v>
@@ -3724,19 +3724,19 @@
         <v>286345</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>257041</v>
+        <v>258031</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>318561</v>
+        <v>319028</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1511632528447377</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1356934563167276</v>
+        <v>0.1362158724010249</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1681701059655644</v>
+        <v>0.1684165961000296</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>668578</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>647289</v>
+        <v>647868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>691076</v>
+        <v>689756</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8199549628075581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7938460524970554</v>
+        <v>0.7945560318244113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.847546247622292</v>
+        <v>0.8459283549719646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>597</v>
@@ -3849,19 +3849,19 @@
         <v>638106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>617455</v>
+        <v>616420</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>657584</v>
+        <v>658046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8331595561900598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8061960059860541</v>
+        <v>0.8048450479368643</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8585915401602605</v>
+        <v>0.8591945989901848</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1235</v>
@@ -3870,19 +3870,19 @@
         <v>1306684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1279336</v>
+        <v>1274871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1337223</v>
+        <v>1335793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8263505907688029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.809055663723704</v>
+        <v>0.8062315897389436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.845663682085831</v>
+        <v>0.8447589714072155</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>146806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>124308</v>
+        <v>125628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>168095</v>
+        <v>167516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1800450371924419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1524537523777078</v>
+        <v>0.1540716450280353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2061539475029445</v>
+        <v>0.2054439681755886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -3920,19 +3920,19 @@
         <v>127781</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108303</v>
+        <v>107841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148432</v>
+        <v>149467</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1668404438099402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1414084598397395</v>
+        <v>0.1408054010098151</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.193803994013946</v>
+        <v>0.1951549520631357</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>268</v>
@@ -3941,19 +3941,19 @@
         <v>274587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>244048</v>
+        <v>245478</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>301935</v>
+        <v>306400</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1736494092311971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1543363179141687</v>
+        <v>0.1552410285927842</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1909443362762961</v>
+        <v>0.1937684102610563</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>349147</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>327478</v>
+        <v>327427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>368598</v>
+        <v>368823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6944356769164399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6513371924942846</v>
+        <v>0.6512358701770549</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7331223224355927</v>
+        <v>0.7335712467617254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>354</v>
@@ -4066,19 +4066,19 @@
         <v>384294</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>365187</v>
+        <v>365137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>401787</v>
+        <v>400121</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.791335098755769</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7519913703114417</v>
+        <v>0.7518874701584566</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8273574481871385</v>
+        <v>0.8239258859879411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>676</v>
@@ -4087,19 +4087,19 @@
         <v>733441</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>705150</v>
+        <v>705140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>759327</v>
+        <v>760492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7420446884406908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7134210064151434</v>
+        <v>0.7134116553812764</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.768233990014508</v>
+        <v>0.7694128101994319</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>153631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134180</v>
+        <v>133955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175300</v>
+        <v>175351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3055643230835601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2668776775644073</v>
+        <v>0.2664287532382745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3486628075057155</v>
+        <v>0.3487641298229449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -4137,19 +4137,19 @@
         <v>101333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83840</v>
+        <v>85506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>120440</v>
+        <v>120490</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.208664901244231</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1726425518128616</v>
+        <v>0.1760741140120588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2480086296885583</v>
+        <v>0.2481125298415434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>243</v>
@@ -4158,19 +4158,19 @@
         <v>254965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>229079</v>
+        <v>227914</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283256</v>
+        <v>283266</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2579553115593092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.231766009985492</v>
+        <v>0.2305871898005682</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2865789935848567</v>
+        <v>0.2865883446187237</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2733970</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2686772</v>
+        <v>2686527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2775846</v>
+        <v>2775110</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8183274963816278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8042002388329643</v>
+        <v>0.8041268368722292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8308618364569204</v>
+        <v>0.8306413412927045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2775</v>
@@ -4283,19 +4283,19 @@
         <v>2960099</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2912460</v>
+        <v>2918688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3001045</v>
+        <v>3005704</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8474696140401636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8338306794710209</v>
+        <v>0.8356138204135036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8591924619771353</v>
+        <v>0.8605262329898016</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5377</v>
@@ -4304,19 +4304,19 @@
         <v>5694069</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5632781</v>
+        <v>5634630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5758299</v>
+        <v>5757704</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8332225297111027</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8242542507569733</v>
+        <v>0.8245248240283328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8426214765308778</v>
+        <v>0.8425344238410379</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>606954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>565078</v>
+        <v>565814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>654152</v>
+        <v>654397</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1816725036183721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1691381635430795</v>
+        <v>0.1693586587072955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1957997611670356</v>
+        <v>0.1958731631277707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>516</v>
@@ -4354,19 +4354,19 @@
         <v>532768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>491822</v>
+        <v>487163</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>580407</v>
+        <v>574179</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1525303859598363</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1408075380228647</v>
+        <v>0.1394737670101986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1661693205289788</v>
+        <v>0.1643861795864965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1096</v>
@@ -4375,19 +4375,19 @@
         <v>1139722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1075492</v>
+        <v>1076087</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1201010</v>
+        <v>1199161</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1667774702888973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.157378523469122</v>
+        <v>0.157465576158962</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1757457492430265</v>
+        <v>0.1754751759716671</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>383819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>362568</v>
+        <v>359675</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>405511</v>
+        <v>401683</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7789539721152411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7358262201716549</v>
+        <v>0.7299548347430543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8229775897145374</v>
+        <v>0.8152086822181601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>655</v>
@@ -4740,19 +4740,19 @@
         <v>468153</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>445682</v>
+        <v>447380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>487487</v>
+        <v>488356</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7671165773424271</v>
+        <v>0.767116577342427</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.730295617202982</v>
+        <v>0.7330775062746441</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7987972930044406</v>
+        <v>0.8002209476055939</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1015</v>
@@ -4761,19 +4761,19 @@
         <v>851972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>821559</v>
+        <v>822521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>879226</v>
+        <v>877631</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7724045618605303</v>
+        <v>0.7724045618605306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.744832265232895</v>
+        <v>0.7457047128363313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7971140209256643</v>
+        <v>0.7956680859173624</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>108917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87225</v>
+        <v>91053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130168</v>
+        <v>133061</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2210460278847589</v>
+        <v>0.2210460278847588</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1770224102854621</v>
+        <v>0.1847913177818398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.264173779828345</v>
+        <v>0.2700451652569455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -4811,19 +4811,19 @@
         <v>142123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122789</v>
+        <v>121920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>164594</v>
+        <v>162896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.232883422657573</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2012027069955594</v>
+        <v>0.1997790523944062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2697043827970181</v>
+        <v>0.2669224937253559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -4832,19 +4832,19 @@
         <v>251040</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>223786</v>
+        <v>225381</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>281453</v>
+        <v>280491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2275954381394696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2028859790743357</v>
+        <v>0.2043319140826374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2551677347671049</v>
+        <v>0.2542952871636687</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>698948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>664917</v>
+        <v>668136</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>728419</v>
+        <v>731173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7389703909574411</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7029905180155009</v>
+        <v>0.7063933242611042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7701283480034496</v>
+        <v>0.7730399752576252</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1175</v>
@@ -4957,19 +4957,19 @@
         <v>799453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>773084</v>
+        <v>771905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>827089</v>
+        <v>824999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7278734889259643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7038650818695789</v>
+        <v>0.7027916418965524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7530350021671879</v>
+        <v>0.7511319278970663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1852</v>
@@ -4978,19 +4978,19 @@
         <v>1498402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1455582</v>
+        <v>1457022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1537059</v>
+        <v>1539569</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7330080149299234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7120610966495762</v>
+        <v>0.7127651834100999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7519186820519795</v>
+        <v>0.7531469492482197</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>246893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217422</v>
+        <v>214668</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>280924</v>
+        <v>277705</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2610296090425589</v>
+        <v>0.261029609042559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2298716519965504</v>
+        <v>0.2269600247423746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2970094819844991</v>
+        <v>0.2936066757388955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -5028,19 +5028,19 @@
         <v>298888</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>271252</v>
+        <v>273342</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325257</v>
+        <v>326436</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2721265110740356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2469649978328121</v>
+        <v>0.2488680721029335</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2961349181304213</v>
+        <v>0.2972083581034475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>623</v>
@@ -5049,19 +5049,19 @@
         <v>545780</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>507123</v>
+        <v>504613</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>588600</v>
+        <v>587160</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2669919850700767</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2480813179480204</v>
+        <v>0.2468530507517803</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2879389033504238</v>
+        <v>0.2872348165899</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>615946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>577482</v>
+        <v>580848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>649076</v>
+        <v>653578</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5951431463945613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5579774134866704</v>
+        <v>0.5612304321209568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6271536235505607</v>
+        <v>0.6315037901227928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>924</v>
@@ -5174,19 +5174,19 @@
         <v>617763</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>589298</v>
+        <v>587998</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>643281</v>
+        <v>646507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5990381063170882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5714351992270827</v>
+        <v>0.5701750351209814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6237825116605527</v>
+        <v>0.6269100672122603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1553</v>
@@ -5195,19 +5195,19 @@
         <v>1233710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1189893</v>
+        <v>1183579</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1278672</v>
+        <v>1275747</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5970871428459468</v>
+        <v>0.5970871428459467</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5758807382611191</v>
+        <v>0.5728246581843901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6188473496543397</v>
+        <v>0.6174321088237549</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>419009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>385879</v>
+        <v>381377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>457473</v>
+        <v>454107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4048568536054387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3728463764494391</v>
+        <v>0.3684962098772074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4420225865133296</v>
+        <v>0.4387695678790431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -5245,19 +5245,19 @@
         <v>413496</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>387978</v>
+        <v>384752</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>441961</v>
+        <v>443261</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.400961893682912</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3762174883394477</v>
+        <v>0.3730899327877397</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4285648007729175</v>
+        <v>0.4298249648790186</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>955</v>
@@ -5266,19 +5266,19 @@
         <v>832505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>787543</v>
+        <v>790468</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>876322</v>
+        <v>882636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4029128571540534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3811526503456604</v>
+        <v>0.3825678911762448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4241192617388809</v>
+        <v>0.42717534181561</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>520986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>487000</v>
+        <v>487895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>553394</v>
+        <v>554938</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5442743641225345</v>
+        <v>0.5442743641225344</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.508769149732948</v>
+        <v>0.5097037549478606</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5781303777404845</v>
+        <v>0.5797437538182326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>765</v>
@@ -5391,19 +5391,19 @@
         <v>490061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>463594</v>
+        <v>461365</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>518550</v>
+        <v>517954</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5506122056996406</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5208742188592839</v>
+        <v>0.5183704376830123</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5826205058016406</v>
+        <v>0.5819506988042955</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1301</v>
@@ -5412,19 +5412,19 @@
         <v>1011047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>968332</v>
+        <v>967343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1058614</v>
+        <v>1055218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5473280338517896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5242043152381347</v>
+        <v>0.5236685361260075</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5730779554724693</v>
+        <v>0.5712397177880056</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>436227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>403819</v>
+        <v>402275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470213</v>
+        <v>469318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4557256358774656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4218696222595152</v>
+        <v>0.4202562461817674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4912308502670518</v>
+        <v>0.4902962450521396</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>530</v>
@@ -5462,19 +5462,19 @@
         <v>399969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>371480</v>
+        <v>372076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>426436</v>
+        <v>428665</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4493877943003594</v>
+        <v>0.4493877943003593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4173794941983591</v>
+        <v>0.4180493011957046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.479125781140716</v>
+        <v>0.4816295623169877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>922</v>
@@ -5483,19 +5483,19 @@
         <v>836195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>788628</v>
+        <v>792024</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>878910</v>
+        <v>879899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4526719661482103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4269220445275308</v>
+        <v>0.4287602822119944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4757956847618653</v>
+        <v>0.4763314638739925</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2219700</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2153155</v>
+        <v>2152785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2282500</v>
+        <v>2281239</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6470023361321274</v>
+        <v>0.6470023361321273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6276056713261593</v>
+        <v>0.6274978288738584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6653075042289687</v>
+        <v>0.66493972628494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3519</v>
@@ -5608,19 +5608,19 @@
         <v>2375431</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2322008</v>
+        <v>2320870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2429884</v>
+        <v>2423959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6544056257753297</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6396880697292443</v>
+        <v>0.6393747945760139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6694069163778098</v>
+        <v>0.667774630197601</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5721</v>
@@ -5629,19 +5629,19 @@
         <v>4595130</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4510200</v>
+        <v>4504028</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4673483</v>
+        <v>4676655</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6508083940256217</v>
+        <v>0.6508083940256219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6387796483628206</v>
+        <v>0.6379056373293724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.661905461477422</v>
+        <v>0.6623547992102253</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1211045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1148245</v>
+        <v>1149506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1277590</v>
+        <v>1277960</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3529976638678727</v>
+        <v>0.3529976638678726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3346924957710312</v>
+        <v>0.3350602737150601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3723943286738406</v>
+        <v>0.3725021711261412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1687</v>
@@ -5679,19 +5679,19 @@
         <v>1254475</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1200022</v>
+        <v>1205947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1307898</v>
+        <v>1309036</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3455943742246703</v>
+        <v>0.3455943742246704</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3305930836221899</v>
+        <v>0.332225369802399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.360311930270755</v>
+        <v>0.3606252054239861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2773</v>
@@ -5700,19 +5700,19 @@
         <v>2465520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2387167</v>
+        <v>2383995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2550450</v>
+        <v>2556622</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.349191605974378</v>
+        <v>0.3491916059743781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3380945385225775</v>
+        <v>0.3376452007897744</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3612203516371791</v>
+        <v>0.3620943626706273</v>
       </c>
     </row>
     <row r="18">
